--- a/observations/orbit_plans/mtp102/nomad_mtp102_plan.xlsx
+++ b/observations/orbit_plans/mtp102/nomad_mtp102_plan.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp102\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B1B5C0-00AC-45A1-A4B2-CF455820CBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="20544" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1507,8 +1513,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1517,12 +1523,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1537,21 +1549,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1589,7 +1610,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1623,6 +1644,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1657,9 +1679,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1832,14 +1855,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="E268" sqref="E268"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="6" width="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +1908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14</v>
       </c>
@@ -1894,7 +1922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>14</v>
       </c>
@@ -1908,7 +1936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14</v>
       </c>
@@ -1922,7 +1950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14</v>
       </c>
@@ -1936,7 +1964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
@@ -1950,7 +1978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1967,7 +1995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1981,7 +2009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1995,7 +2023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2009,7 +2037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2026,7 +2054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2040,7 +2068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2054,7 +2082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2068,7 +2096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2082,7 +2110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2096,7 +2124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2110,7 +2138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2124,7 +2152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2138,7 +2166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2152,7 +2180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>14</v>
       </c>
@@ -2166,7 +2194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -2180,7 +2208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2194,7 +2222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
@@ -2208,7 +2236,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2225,7 +2253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2239,7 +2267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>14</v>
       </c>
@@ -2253,7 +2281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>14</v>
       </c>
@@ -2267,7 +2295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2284,7 +2312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14</v>
       </c>
@@ -2298,7 +2326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2312,7 +2340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
@@ -2326,7 +2354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2340,7 +2368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2354,7 +2382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2371,7 +2399,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>14</v>
       </c>
@@ -2382,7 +2410,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>14</v>
       </c>
@@ -2393,7 +2421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>14</v>
       </c>
@@ -2407,7 +2435,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -2421,7 +2449,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2435,7 +2463,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2449,7 +2477,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2463,7 +2491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2477,7 +2505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2494,7 +2522,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>14</v>
       </c>
@@ -2508,7 +2536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>14</v>
       </c>
@@ -2522,7 +2550,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -2536,7 +2564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2553,7 +2581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>14</v>
       </c>
@@ -2567,7 +2595,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
@@ -2581,7 +2609,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14</v>
       </c>
@@ -2595,7 +2623,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>14</v>
       </c>
@@ -2609,7 +2637,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>14</v>
       </c>
@@ -2623,7 +2651,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>14</v>
       </c>
@@ -2637,7 +2665,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>14</v>
       </c>
@@ -2651,7 +2679,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>14</v>
       </c>
@@ -2665,7 +2693,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14</v>
       </c>
@@ -2679,7 +2707,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>14</v>
       </c>
@@ -2693,7 +2721,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>14</v>
       </c>
@@ -2707,7 +2735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>14</v>
       </c>
@@ -2721,7 +2749,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>14</v>
       </c>
@@ -2735,7 +2763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>14</v>
       </c>
@@ -2749,7 +2777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>14</v>
       </c>
@@ -2763,7 +2791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2780,7 +2808,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>14</v>
       </c>
@@ -2794,7 +2822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>14</v>
       </c>
@@ -2808,7 +2836,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>14</v>
       </c>
@@ -2822,7 +2850,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>14</v>
       </c>
@@ -2836,7 +2864,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -2850,7 +2878,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>7</v>
       </c>
@@ -2867,7 +2895,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>14</v>
       </c>
@@ -2881,7 +2909,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>14</v>
       </c>
@@ -2895,7 +2923,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2912,7 +2940,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>14</v>
       </c>
@@ -2926,7 +2954,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14</v>
       </c>
@@ -2940,7 +2968,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -2954,7 +2982,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>14</v>
       </c>
@@ -2968,7 +2996,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2985,7 +3013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>14</v>
       </c>
@@ -2999,7 +3027,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14</v>
       </c>
@@ -3013,7 +3041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>14</v>
       </c>
@@ -3027,7 +3055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>14</v>
       </c>
@@ -3041,7 +3069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3058,7 +3086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14</v>
       </c>
@@ -3072,7 +3100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>14</v>
       </c>
@@ -3086,7 +3114,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>14</v>
       </c>
@@ -3100,7 +3128,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3114,7 +3142,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3128,7 +3156,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>14</v>
       </c>
@@ -3142,7 +3170,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3156,7 +3184,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>14</v>
       </c>
@@ -3170,7 +3198,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>14</v>
       </c>
@@ -3184,7 +3212,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>14</v>
       </c>
@@ -3198,7 +3226,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>14</v>
       </c>
@@ -3212,7 +3240,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>7</v>
       </c>
@@ -3229,7 +3257,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>14</v>
       </c>
@@ -3243,7 +3271,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>14</v>
       </c>
@@ -3257,7 +3285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>14</v>
       </c>
@@ -3271,7 +3299,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>14</v>
       </c>
@@ -3285,7 +3313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3</v>
       </c>
@@ -3302,7 +3330,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>14</v>
       </c>
@@ -3316,7 +3344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14</v>
       </c>
@@ -3330,7 +3358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>14</v>
       </c>
@@ -3344,7 +3372,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>14</v>
       </c>
@@ -3358,7 +3386,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14</v>
       </c>
@@ -3372,7 +3400,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14</v>
       </c>
@@ -3386,7 +3414,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>14</v>
       </c>
@@ -3400,7 +3428,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>14</v>
       </c>
@@ -3414,7 +3442,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>14</v>
       </c>
@@ -3428,7 +3456,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>3</v>
       </c>
@@ -3445,7 +3473,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>14</v>
       </c>
@@ -3459,7 +3487,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>14</v>
       </c>
@@ -3473,7 +3501,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>14</v>
       </c>
@@ -3487,7 +3515,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>14</v>
       </c>
@@ -3501,7 +3529,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>3</v>
       </c>
@@ -3518,7 +3546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>14</v>
       </c>
@@ -3532,7 +3560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>14</v>
       </c>
@@ -3546,7 +3574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>14</v>
       </c>
@@ -3560,7 +3588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>3</v>
       </c>
@@ -3577,7 +3605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>14</v>
       </c>
@@ -3591,7 +3619,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>14</v>
       </c>
@@ -3605,7 +3633,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>14</v>
       </c>
@@ -3616,7 +3644,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>3</v>
       </c>
@@ -3633,7 +3661,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3665,7 +3693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>14</v>
       </c>
@@ -3679,7 +3707,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3711,7 +3739,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>14</v>
       </c>
@@ -3725,7 +3753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>14</v>
       </c>
@@ -3739,7 +3767,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3759,7 +3787,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3782,7 +3810,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>14</v>
       </c>
@@ -3796,7 +3824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3828,7 +3856,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>14</v>
       </c>
@@ -3842,7 +3870,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3874,7 +3902,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>14</v>
       </c>
@@ -3888,7 +3916,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>47</v>
       </c>
@@ -3902,7 +3930,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3934,7 +3962,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -3966,7 +3994,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -3980,7 +4008,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4012,7 +4040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>14</v>
       </c>
@@ -4026,7 +4054,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4046,7 +4074,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>14</v>
       </c>
@@ -4060,7 +4088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4092,7 +4120,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4118,7 +4146,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14</v>
       </c>
@@ -4132,7 +4160,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4164,7 +4192,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>14</v>
       </c>
@@ -4178,7 +4206,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14</v>
       </c>
@@ -4192,7 +4220,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4224,7 +4252,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4256,7 +4284,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>14</v>
       </c>
@@ -4270,7 +4298,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4302,7 +4330,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>14</v>
       </c>
@@ -4313,7 +4341,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>47</v>
       </c>
@@ -4330,7 +4358,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4362,7 +4390,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4394,7 +4422,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>14</v>
       </c>
@@ -4408,7 +4436,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4440,7 +4468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>14</v>
       </c>
@@ -4454,7 +4482,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>28</v>
       </c>
@@ -4468,7 +4496,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>14</v>
       </c>
@@ -4482,7 +4510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4514,7 +4542,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>14</v>
       </c>
@@ -4528,7 +4556,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4560,7 +4588,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4592,7 +4620,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>14</v>
       </c>
@@ -4606,7 +4634,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>14</v>
       </c>
@@ -4620,7 +4648,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4652,7 +4680,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>14</v>
       </c>
@@ -4666,7 +4694,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4698,7 +4726,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>14</v>
       </c>
@@ -4712,7 +4740,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4744,7 +4772,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>14</v>
       </c>
@@ -4758,7 +4786,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4790,7 +4818,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>14</v>
       </c>
@@ -4804,7 +4832,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4836,7 +4864,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>14</v>
       </c>
@@ -4850,7 +4878,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4882,7 +4910,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>14</v>
       </c>
@@ -4896,7 +4924,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4928,7 +4956,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>14</v>
       </c>
@@ -4942,7 +4970,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4965,7 +4993,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>14</v>
       </c>
@@ -4979,7 +5007,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1</v>
       </c>
@@ -5005,7 +5033,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>14</v>
       </c>
@@ -5019,7 +5047,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
@@ -5051,7 +5079,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>14</v>
       </c>
@@ -5065,7 +5093,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5078,13 +5106,13 @@
       <c r="D189" t="s">
         <v>3</v>
       </c>
-      <c r="E189" t="s">
-        <v>321</v>
-      </c>
-      <c r="F189" t="s">
-        <v>321</v>
-      </c>
-      <c r="G189" t="s">
+      <c r="E189" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G189" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I189" t="s">
@@ -5097,7 +5125,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>14</v>
       </c>
@@ -5111,7 +5139,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
@@ -5134,7 +5162,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>14</v>
       </c>
@@ -5148,7 +5176,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
@@ -5174,7 +5202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
@@ -5197,7 +5225,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>14</v>
       </c>
@@ -5211,7 +5239,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>14</v>
       </c>
@@ -5225,7 +5253,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>14</v>
       </c>
@@ -5239,7 +5267,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5262,7 +5290,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>14</v>
       </c>
@@ -5276,17 +5304,17 @@
         <v>352</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
-      <c r="E200" t="s">
-        <v>321</v>
-      </c>
-      <c r="F200" t="s">
-        <v>321</v>
-      </c>
-      <c r="G200" t="s">
+      <c r="E200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I200" t="s">
@@ -5299,7 +5327,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>14</v>
       </c>
@@ -5313,17 +5341,17 @@
         <v>352</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1</v>
       </c>
-      <c r="E202" t="s">
-        <v>321</v>
-      </c>
-      <c r="F202" t="s">
-        <v>321</v>
-      </c>
-      <c r="G202" t="s">
+      <c r="E202" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G202" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I202" t="s">
@@ -5336,7 +5364,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5359,7 +5387,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>14</v>
       </c>
@@ -5373,7 +5401,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5396,7 +5424,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>14</v>
       </c>
@@ -5410,7 +5438,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>14</v>
       </c>
@@ -5421,7 +5449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>14</v>
       </c>
@@ -5432,7 +5460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>14</v>
       </c>
@@ -5446,7 +5474,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5469,17 +5497,17 @@
         <v>362</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
-      <c r="E211" t="s">
-        <v>321</v>
-      </c>
-      <c r="F211" t="s">
-        <v>321</v>
-      </c>
-      <c r="G211" t="s">
+      <c r="E211" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G211" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I211" t="s">
@@ -5492,7 +5520,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>14</v>
       </c>
@@ -5506,7 +5534,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>14</v>
       </c>
@@ -5517,7 +5545,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>14</v>
       </c>
@@ -5531,17 +5559,17 @@
         <v>375</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1</v>
       </c>
-      <c r="E215" t="s">
-        <v>321</v>
-      </c>
-      <c r="F215" t="s">
-        <v>321</v>
-      </c>
-      <c r="G215" t="s">
+      <c r="E215" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G215" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I215" t="s">
@@ -5554,7 +5582,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>14</v>
       </c>
@@ -5568,17 +5596,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1</v>
       </c>
-      <c r="E217" t="s">
-        <v>321</v>
-      </c>
-      <c r="F217" t="s">
-        <v>321</v>
-      </c>
-      <c r="G217" t="s">
+      <c r="E217" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G217" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I217" t="s">
@@ -5591,7 +5619,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5614,7 +5642,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>14</v>
       </c>
@@ -5628,7 +5656,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>14</v>
       </c>
@@ -5642,7 +5670,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5665,7 +5693,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>3</v>
       </c>
@@ -5682,7 +5710,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>14</v>
       </c>
@@ -5696,7 +5724,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5719,7 +5747,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>14</v>
       </c>
@@ -5730,7 +5758,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>14</v>
       </c>
@@ -5744,7 +5772,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>14</v>
       </c>
@@ -5758,7 +5786,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -5781,17 +5809,17 @@
         <v>397</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1</v>
       </c>
-      <c r="E229" t="s">
-        <v>321</v>
-      </c>
-      <c r="F229" t="s">
-        <v>321</v>
-      </c>
-      <c r="G229" t="s">
+      <c r="E229" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G229" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I229" t="s">
@@ -5804,7 +5832,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>3</v>
       </c>
@@ -5821,17 +5849,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1</v>
       </c>
-      <c r="E231" t="s">
-        <v>321</v>
-      </c>
-      <c r="F231" t="s">
-        <v>321</v>
-      </c>
-      <c r="G231" t="s">
+      <c r="E231" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I231" t="s">
@@ -5844,7 +5872,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>14</v>
       </c>
@@ -5858,7 +5886,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>14</v>
       </c>
@@ -5872,7 +5900,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5895,7 +5923,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>3</v>
       </c>
@@ -5912,7 +5940,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1</v>
       </c>
@@ -5935,7 +5963,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1</v>
       </c>
@@ -5958,7 +5986,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>14</v>
       </c>
@@ -5972,7 +6000,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1</v>
       </c>
@@ -5998,7 +6026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>14</v>
       </c>
@@ -6012,7 +6040,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1</v>
       </c>
@@ -6035,17 +6063,17 @@
         <v>419</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1</v>
       </c>
-      <c r="E242" t="s">
-        <v>321</v>
-      </c>
-      <c r="F242" t="s">
-        <v>321</v>
-      </c>
-      <c r="G242" t="s">
+      <c r="E242" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G242" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I242" t="s">
@@ -6058,7 +6086,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>14</v>
       </c>
@@ -6072,17 +6100,17 @@
         <v>423</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1</v>
       </c>
-      <c r="E244" t="s">
-        <v>321</v>
-      </c>
-      <c r="F244" t="s">
-        <v>321</v>
-      </c>
-      <c r="G244" t="s">
+      <c r="E244" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G244" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I244" t="s">
@@ -6095,7 +6123,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>14</v>
       </c>
@@ -6109,7 +6137,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>14</v>
       </c>
@@ -6123,7 +6151,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1</v>
       </c>
@@ -6146,7 +6174,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1</v>
       </c>
@@ -6169,7 +6197,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>14</v>
       </c>
@@ -6183,7 +6211,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>47</v>
       </c>
@@ -6197,7 +6225,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>14</v>
       </c>
@@ -6211,7 +6239,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1</v>
       </c>
@@ -6237,7 +6265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>14</v>
       </c>
@@ -6251,7 +6279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1</v>
       </c>
@@ -6274,7 +6302,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>14</v>
       </c>
@@ -6288,7 +6316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1</v>
       </c>
@@ -6311,17 +6339,17 @@
         <v>442</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1</v>
       </c>
-      <c r="E257" t="s">
-        <v>321</v>
-      </c>
-      <c r="F257" t="s">
-        <v>321</v>
-      </c>
-      <c r="G257" t="s">
+      <c r="E257" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G257" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I257" t="s">
@@ -6334,7 +6362,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>3</v>
       </c>
@@ -6351,17 +6379,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1</v>
       </c>
-      <c r="E259" t="s">
-        <v>321</v>
-      </c>
-      <c r="F259" t="s">
-        <v>321</v>
-      </c>
-      <c r="G259" t="s">
+      <c r="E259" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G259" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I259" t="s">
@@ -6374,7 +6402,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>14</v>
       </c>
@@ -6388,17 +6416,17 @@
         <v>448</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
-      <c r="E261" t="s">
-        <v>321</v>
-      </c>
-      <c r="F261" t="s">
-        <v>321</v>
-      </c>
-      <c r="G261" t="s">
+      <c r="E261" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G261" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I261" t="s">
@@ -6411,7 +6439,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>47</v>
       </c>
@@ -6425,7 +6453,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>14</v>
       </c>
@@ -6439,7 +6467,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>14</v>
       </c>
@@ -6453,17 +6481,17 @@
         <v>452</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1</v>
       </c>
-      <c r="E265" t="s">
-        <v>321</v>
-      </c>
-      <c r="F265" t="s">
-        <v>321</v>
-      </c>
-      <c r="G265" t="s">
+      <c r="E265" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G265" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H265" t="s">
@@ -6479,7 +6507,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
@@ -6502,7 +6530,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>14</v>
       </c>
@@ -6513,7 +6541,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>47</v>
       </c>
@@ -6530,7 +6558,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1</v>
       </c>
@@ -6553,7 +6581,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>14</v>
       </c>
@@ -6567,7 +6595,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1</v>
       </c>
@@ -6593,17 +6621,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1</v>
       </c>
-      <c r="E272" t="s">
-        <v>321</v>
-      </c>
-      <c r="F272" t="s">
-        <v>321</v>
-      </c>
-      <c r="G272" t="s">
+      <c r="E272" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G272" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I272" t="s">
@@ -6616,7 +6644,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>14</v>
       </c>
@@ -6630,17 +6658,17 @@
         <v>466</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
-      <c r="E274" t="s">
-        <v>321</v>
-      </c>
-      <c r="F274" t="s">
-        <v>321</v>
-      </c>
-      <c r="G274" t="s">
+      <c r="E274" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G274" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I274" t="s">
@@ -6653,7 +6681,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>14</v>
       </c>
@@ -6667,17 +6695,17 @@
         <v>469</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1</v>
       </c>
-      <c r="E276" t="s">
-        <v>321</v>
-      </c>
-      <c r="F276" t="s">
-        <v>321</v>
-      </c>
-      <c r="G276" t="s">
+      <c r="E276" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G276" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I276" t="s">
@@ -6690,7 +6718,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1</v>
       </c>
@@ -6716,7 +6744,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>14</v>
       </c>
@@ -6730,7 +6758,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1</v>
       </c>
@@ -6753,7 +6781,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>14</v>
       </c>
@@ -6767,7 +6795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1</v>
       </c>
@@ -6790,7 +6818,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>14</v>
       </c>
@@ -6804,7 +6832,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1</v>
       </c>
@@ -6827,17 +6855,17 @@
         <v>482</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
-      <c r="E284" t="s">
-        <v>321</v>
-      </c>
-      <c r="F284" t="s">
-        <v>321</v>
-      </c>
-      <c r="G284" t="s">
+      <c r="E284" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G284" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I284" t="s">
@@ -6850,7 +6878,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>14</v>
       </c>
@@ -6864,7 +6892,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1</v>
       </c>
@@ -6887,7 +6915,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>14</v>
       </c>
@@ -6901,7 +6929,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1</v>
       </c>
@@ -6927,7 +6955,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>14</v>
       </c>
@@ -6941,7 +6969,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1</v>
       </c>
@@ -6964,7 +6992,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1</v>
       </c>
